--- a/src/main/resources/pasos.xlsx
+++ b/src/main/resources/pasos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\evidencias\evidencias\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A479FA-23B8-49A4-B813-2735FEBEF2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C5DB13-4E6D-40B9-B733-9ED48CDC4202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{13D41CBB-CFDD-41B4-B28D-0A611BF730B0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
     <t>Ir a la pagina google</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>PROYECT</t>
+  </si>
+  <si>
+    <t>revisar</t>
+  </si>
+  <si>
+    <t>MTC_FT_003_CasoDePrueba3</t>
   </si>
 </sst>
 </file>
@@ -460,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD018E5-26B5-4647-B0B2-F70113395D68}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,6 +645,67 @@
         <v>14</v>
       </c>
     </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
